--- a/mexico_toponimia.xlsx
+++ b/mexico_toponimia.xlsx
@@ -523,7 +523,11 @@
           <t>Ciudad de México</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Toma su nombre de la voz México que se encontraba en el nombre de la capital del Imperio mexica: México-Tenochtitlan. La Ciudad de México originó el nombre que a su vez designa el nombre del país (México) y de un estado dentro del país (Estado de México).</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
